--- a/Documents/Notely_työajanseuranta.xlsx
+++ b/Documents/Notely_työajanseuranta.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29725"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\okkon\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\okkon\Projects\Koulu\Mobiilikehitys-Notely\Notely-app\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0FB29F5A-018D-4EDE-91E3-976C3B1A214C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46AD519D-7C43-475E-8112-CBD6B97A9FEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47772" yWindow="3876" windowWidth="21312" windowHeight="16800" xr2:uid="{80C0C213-2C35-418D-A664-F8AA0561B4EA}"/>
+    <workbookView xWindow="47076" yWindow="3912" windowWidth="21312" windowHeight="16800" xr2:uid="{80C0C213-2C35-418D-A664-F8AA0561B4EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Johan Okkonen" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
   <si>
     <t>Päivämäärä</t>
   </si>
@@ -142,6 +142,9 @@
   </si>
   <si>
     <t>Mathblock korjaus</t>
+  </si>
+  <si>
+    <t>LTS viimeistely ja posterin teko</t>
   </si>
 </sst>
 </file>
@@ -204,10 +207,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -527,10 +526,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A34DECF-DF15-460F-A68A-B409330D1306}">
-  <dimension ref="A5:D31"/>
+  <dimension ref="A5:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -697,7 +696,7 @@
       </c>
       <c r="D18">
         <f>SUM(C:C)</f>
-        <v>57.5</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
@@ -841,6 +840,17 @@
       </c>
       <c r="C31">
         <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>27.2</v>
+      </c>
+      <c r="B32" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -969,15 +979,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_activity xmlns="9d20d55c-6f64-40ca-bc7d-19eea9cc7213" xsi:nil="true"/>
@@ -988,7 +989,7 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008D19BD2DEA29674E957A28C786A1ACC5" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="bfaaea512369ed8bec8cc7771b77183a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="9d20d55c-6f64-40ca-bc7d-19eea9cc7213" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2d4d7d28ff5bb737246ffbfeea4c94fa" ns3:_="">
     <xsd:import namespace="9d20d55c-6f64-40ca-bc7d-19eea9cc7213"/>
@@ -1186,15 +1187,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A595B519-111B-43C4-A1F0-0CE259772714}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E597508-CD22-48D5-B6BD-46CCFA5BBAEE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -1210,7 +1212,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90577F6A-F30C-4548-8ABE-E437A414F06B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1228,6 +1230,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A595B519-111B-43C4-A1F0-0CE259772714}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{9f9ce49a-5101-4aa3-8c75-0d5935ad6525}" enabled="0" method="" siteId="{9f9ce49a-5101-4aa3-8c75-0d5935ad6525}" removed="1"/>
